--- a/plotting/tuflowfv/Variable_Conversions.xlsx
+++ b/plotting/tuflowfv/Variable_Conversions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\busch_github\aed_matlab_modeltools\TUFLOWFV\tuflowfv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Berowra\plotting\tuflowfv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79CB94-5D82-49E1-8366-210929605B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00109F5D-0C90-4225-88D2-A18EA0A2C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="540" windowWidth="28800" windowHeight="15540" xr2:uid="{554F5171-E7DD-44AF-8355-B2C27C04B05A}"/>
+    <workbookView xWindow="680" yWindow="700" windowWidth="28800" windowHeight="15470" xr2:uid="{554F5171-E7DD-44AF-8355-B2C27C04B05A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="422">
   <si>
     <t>WQ_MAC_RUPPIA</t>
   </si>
@@ -1261,6 +1261,45 @@
   </si>
   <si>
     <t>Depth</t>
+  </si>
+  <si>
+    <t>WQ_CAR_PH</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Filtered_Total_Phosphorus</t>
+  </si>
+  <si>
+    <t>Filtered Total Phosphorus</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Faecal Coliforms</t>
+  </si>
+  <si>
+    <t>CFU/100ml</t>
+  </si>
+  <si>
+    <t>ECLOI</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>µS/cm</t>
   </si>
 </sst>
 </file>
@@ -1321,12 +1360,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1641,23 +1695,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CE4830-8A6D-40F8-BC45-D01436C16EA5}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B1" t="s">
@@ -1676,8 +1730,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B2" t="s">
@@ -1696,8 +1750,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B3" t="s">
@@ -1716,925 +1770,928 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>333</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>330</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>333</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>332</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>157</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>331</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>152</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <f>31/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>158</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>148</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>402</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>408</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>387</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>177</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
         <v>152</v>
       </c>
-      <c r="D10">
+      <c r="D16">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E16" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D11">
+      <c r="D17">
         <f>31/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E17" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D18" s="1">
         <f>1/83.333333</f>
         <v>1.2000000048E-2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>184</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C23" t="s">
         <v>152</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B24" t="s">
         <v>338</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C24" t="s">
         <v>324</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>185</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>152</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B26" t="s">
         <v>339</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C26" t="s">
         <v>324</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C27" t="s">
         <v>152</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C28" t="s">
         <v>324</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B29" t="s">
         <v>187</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C29" t="s">
         <v>188</v>
       </c>
-      <c r="D23">
+      <c r="D29">
         <f>1/86400</f>
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E29" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>151</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C30" t="s">
         <v>152</v>
       </c>
-      <c r="D24">
+      <c r="D30">
         <f>32/1000</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E30" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>189</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>152</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <f>28.1/1000</f>
         <v>2.81E-2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E31" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>190</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="D26">
+      <c r="D32">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E32" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C33" t="s">
         <v>152</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E33" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B34" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D28">
+      <c r="D34">
         <f>31/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E34" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B35" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D29">
+      <c r="D35">
         <f>31/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E35" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D36" s="1">
         <f>1/83.333333</f>
         <v>1.2000000048E-2</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D37" s="1">
         <f>1/83.333333</f>
         <v>1.2000000048E-2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D38" s="1">
         <f>1/83.333333</f>
         <v>1.2000000048E-2</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D39" s="2">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D40" s="2">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D41" s="2">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D36">
+      <c r="D42">
         <f>31/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D37">
+      <c r="D43">
         <f>31/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D38">
+      <c r="D44">
         <f>31/1000</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C52" t="s">
         <v>406</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C53" t="s">
         <v>406</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>406</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>329</v>
@@ -2643,26 +2700,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>33</v>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>34</v>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>383</v>
@@ -2671,838 +2728,841 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C81" t="s">
         <v>324</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C82" t="s">
         <v>390</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C83" t="s">
         <v>391</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C84" t="s">
         <v>392</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C85" t="s">
         <v>392</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>392</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C90" t="s">
         <v>391</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C91" t="s">
         <v>390</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C92" t="s">
         <v>393</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>89</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>92</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>93</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>401</v>
@@ -3511,124 +3571,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>99</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>100</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>101</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>102</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>103</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>385</v>
@@ -3637,469 +3697,553 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B139" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B140" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B141" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B142" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B144" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B147" t="s">
         <v>296</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B148" t="s">
         <v>297</v>
       </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B149" t="s">
         <v>298</v>
       </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B150" t="s">
         <v>299</v>
       </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B151" t="s">
         <v>300</v>
       </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B152" t="s">
         <v>301</v>
       </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B153" t="s">
         <v>302</v>
       </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B154" t="s">
         <v>303</v>
       </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B155" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B156" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B158" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B160" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B162" t="s">
         <v>310</v>
       </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B163" t="s">
         <v>311</v>
       </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B164" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B165" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B166" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B168" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B169" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B170" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B171" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B172" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B173" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B174" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B175" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D169">
+      <c r="D175">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>